--- a/base de datos/Modelo de base de datos.xlsx
+++ b/base de datos/Modelo de base de datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ingresosSENA\base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IngresosSENA\base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59570517-8CA8-4206-8E65-6FE697BC4928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB83DFE-DA63-42CA-87E1-AB373B766CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{891A71D4-0436-4858-87FF-C3C75D4020A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Usuarios</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Estados de ingreso: Ingreso,Salido</t>
+  </si>
+  <si>
+    <t>Tabla donde controle los dispositivos de uso Sena</t>
+  </si>
+  <si>
+    <t>dispositivos uso Sena</t>
+  </si>
+  <si>
+    <t>idSena</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -187,16 +199,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045A210-393E-4F91-8D9C-4D8AFDB5A079}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,19 +536,20 @@
     <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -544,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,41 +589,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -632,88 +664,90 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/base de datos/Modelo de base de datos.xlsx
+++ b/base de datos/Modelo de base de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IngresosSENA\base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB83DFE-DA63-42CA-87E1-AB373B766CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812280D-3EB1-452A-88CD-3E3044CE1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{891A71D4-0436-4858-87FF-C3C75D4020A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{891A71D4-0436-4858-87FF-C3C75D4020A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Usuarios</t>
   </si>
@@ -104,9 +104,6 @@
     <t>NOTAS</t>
   </si>
   <si>
-    <t>Estados de ingreso: Ingreso,Salido</t>
-  </si>
-  <si>
     <t>Tabla donde controle los dispositivos de uso Sena</t>
   </si>
   <si>
@@ -117,6 +114,27 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Estados de ingreso: Ingreso,Salida</t>
+  </si>
+  <si>
+    <t>Dispositivos</t>
+  </si>
+  <si>
+    <t>propiedad</t>
+  </si>
+  <si>
+    <t>Ingreso/Salida</t>
+  </si>
+  <si>
+    <t>codigoIngreso</t>
+  </si>
+  <si>
+    <t>idsispositivo</t>
+  </si>
+  <si>
+    <t>IngresoDispositivo</t>
   </si>
 </sst>
 </file>
@@ -161,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,11 +202,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -202,15 +275,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,229 +616,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045A210-393E-4F91-8D9C-4D8AFDB5A079}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="9"/>
+    <col min="9" max="9" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="10"/>
+    <col min="11" max="11" width="19.42578125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f ca="1">A3:F26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
+      <c r="K10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="3" t="s">
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="1" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B21:E21"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
